--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H2">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I2">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J2">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.664391</v>
+        <v>0.4216986666666666</v>
       </c>
       <c r="N2">
-        <v>4.993173000000001</v>
+        <v>1.265096</v>
       </c>
       <c r="O2">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="P2">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="Q2">
-        <v>260.737580478777</v>
+        <v>11.67107890923644</v>
       </c>
       <c r="R2">
-        <v>2346.638224308993</v>
+        <v>105.039710183128</v>
       </c>
       <c r="S2">
-        <v>0.02679932590288502</v>
+        <v>0.00150154812262319</v>
       </c>
       <c r="T2">
-        <v>0.02679932590288502</v>
+        <v>0.00150154812262319</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H3">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I3">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J3">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.313874</v>
       </c>
       <c r="O3">
-        <v>0.1050039584054939</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="P3">
-        <v>0.1050039584054938</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="Q3">
-        <v>68.60894421522599</v>
+        <v>12.121077871398</v>
       </c>
       <c r="R3">
-        <v>617.480497937034</v>
+        <v>109.089700842582</v>
       </c>
       <c r="S3">
-        <v>0.007051816053905432</v>
+        <v>0.001559442949834179</v>
       </c>
       <c r="T3">
-        <v>0.007051816053905431</v>
+        <v>0.001559442949834179</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H4">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I4">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J4">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6293069999999999</v>
+        <v>0.4328273333333333</v>
       </c>
       <c r="N4">
-        <v>1.887921</v>
+        <v>1.298482</v>
       </c>
       <c r="O4">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="P4">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="Q4">
-        <v>98.58499869222898</v>
+        <v>11.97907975696955</v>
       </c>
       <c r="R4">
-        <v>887.2649882300609</v>
+        <v>107.811717812726</v>
       </c>
       <c r="S4">
-        <v>0.01013283740777669</v>
+        <v>0.001541174115924803</v>
       </c>
       <c r="T4">
-        <v>0.01013283740777669</v>
+        <v>0.001541174115924803</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H5">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I5">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J5">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.439215333333333</v>
+        <v>0.38297</v>
       </c>
       <c r="N5">
-        <v>4.317646</v>
+        <v>1.14891</v>
       </c>
       <c r="O5">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="P5">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="Q5">
-        <v>225.4623605879206</v>
+        <v>10.59921086590333</v>
       </c>
       <c r="R5">
-        <v>2029.161245291286</v>
+        <v>95.39289779312999</v>
       </c>
       <c r="S5">
-        <v>0.02317364174790016</v>
+        <v>0.001363646437553363</v>
       </c>
       <c r="T5">
-        <v>0.02317364174790016</v>
+        <v>0.001363646437553363</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>126.902076</v>
       </c>
       <c r="I6">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J6">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.664391</v>
+        <v>0.4216986666666666</v>
       </c>
       <c r="N6">
-        <v>4.993173000000001</v>
+        <v>1.265096</v>
       </c>
       <c r="O6">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="P6">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="Q6">
-        <v>70.40489105857201</v>
+        <v>17.83814541547733</v>
       </c>
       <c r="R6">
-        <v>633.6440195271481</v>
+        <v>160.543308739296</v>
       </c>
       <c r="S6">
-        <v>0.007236408411749318</v>
+        <v>0.002294974952015108</v>
       </c>
       <c r="T6">
-        <v>0.007236408411749318</v>
+        <v>0.002294974952015108</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>126.902076</v>
       </c>
       <c r="I7">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J7">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.313874</v>
       </c>
       <c r="O7">
-        <v>0.1050039584054939</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="P7">
-        <v>0.1050039584054938</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="Q7">
         <v>18.525926466936</v>
@@ -883,10 +883,10 @@
         <v>166.733338202424</v>
       </c>
       <c r="S7">
-        <v>0.001904145693645849</v>
+        <v>0.002383461745277748</v>
       </c>
       <c r="T7">
-        <v>0.001904145693645848</v>
+        <v>0.002383461745277748</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>126.902076</v>
       </c>
       <c r="I8">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J8">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6293069999999999</v>
+        <v>0.4328273333333333</v>
       </c>
       <c r="N8">
-        <v>1.887921</v>
+        <v>1.298482</v>
       </c>
       <c r="O8">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="P8">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="Q8">
-        <v>26.620121580444</v>
+        <v>18.30889571651466</v>
       </c>
       <c r="R8">
-        <v>239.581094223996</v>
+        <v>164.780061448632</v>
       </c>
       <c r="S8">
-        <v>0.002736089337404928</v>
+        <v>0.002355539552446993</v>
       </c>
       <c r="T8">
-        <v>0.002736089337404928</v>
+        <v>0.002355539552446993</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>126.902076</v>
       </c>
       <c r="I9">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J9">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.439215333333333</v>
+        <v>0.38297</v>
       </c>
       <c r="N9">
-        <v>4.317646</v>
+        <v>1.14891</v>
       </c>
       <c r="O9">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="P9">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="Q9">
-        <v>60.87980453701066</v>
+        <v>16.19989601524</v>
       </c>
       <c r="R9">
-        <v>547.918240833096</v>
+        <v>145.79906413716</v>
       </c>
       <c r="S9">
-        <v>0.006257393812182311</v>
+        <v>0.002084205208236906</v>
       </c>
       <c r="T9">
-        <v>0.006257393812182311</v>
+        <v>0.002084205208236906</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H10">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I10">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J10">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.664391</v>
+        <v>0.4216986666666666</v>
       </c>
       <c r="N10">
-        <v>4.993173000000001</v>
+        <v>1.265096</v>
       </c>
       <c r="O10">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="P10">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="Q10">
-        <v>39.14887748141601</v>
+        <v>12.479329486064</v>
       </c>
       <c r="R10">
-        <v>352.339897332744</v>
+        <v>112.313965374576</v>
       </c>
       <c r="S10">
-        <v>0.004023829339944273</v>
+        <v>0.001605533979087931</v>
       </c>
       <c r="T10">
-        <v>0.004023829339944272</v>
+        <v>0.001605533979087931</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H11">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I11">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J11">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.313874</v>
       </c>
       <c r="O11">
-        <v>0.1050039584054939</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="P11">
-        <v>0.1050039584054938</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="Q11">
-        <v>10.301403987408</v>
+        <v>12.960491969916</v>
       </c>
       <c r="R11">
-        <v>92.712635886672</v>
+        <v>116.644427729244</v>
       </c>
       <c r="S11">
-        <v>0.001058806644630567</v>
+        <v>0.001667438163775853</v>
       </c>
       <c r="T11">
-        <v>0.001058806644630567</v>
+        <v>0.001667438163775853</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H12">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I12">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J12">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6293069999999999</v>
+        <v>0.4328273333333333</v>
       </c>
       <c r="N12">
-        <v>1.887921</v>
+        <v>1.298482</v>
       </c>
       <c r="O12">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="P12">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="Q12">
-        <v>14.802208520232</v>
+        <v>12.808660140988</v>
       </c>
       <c r="R12">
-        <v>133.219876682088</v>
+        <v>115.277941268892</v>
       </c>
       <c r="S12">
-        <v>0.001521411717818896</v>
+        <v>0.001647904168722416</v>
       </c>
       <c r="T12">
-        <v>0.001521411717818896</v>
+        <v>0.001647904168722417</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H13">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I13">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J13">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.439215333333333</v>
+        <v>0.38297</v>
       </c>
       <c r="N13">
-        <v>4.317646</v>
+        <v>1.14891</v>
       </c>
       <c r="O13">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="P13">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="Q13">
-        <v>33.85242094798756</v>
+        <v>11.33323197594</v>
       </c>
       <c r="R13">
-        <v>304.671788531888</v>
+        <v>101.99908778346</v>
       </c>
       <c r="S13">
-        <v>0.003479444965013835</v>
+        <v>0.001458082267206532</v>
       </c>
       <c r="T13">
-        <v>0.003479444965013835</v>
+        <v>0.001458082267206532</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H14">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I14">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J14">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.664391</v>
+        <v>0.4216986666666666</v>
       </c>
       <c r="N14">
-        <v>4.993173000000001</v>
+        <v>1.265096</v>
       </c>
       <c r="O14">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="P14">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="Q14">
-        <v>3512.180605163856</v>
+        <v>1914.338538130586</v>
       </c>
       <c r="R14">
-        <v>31609.62544647471</v>
+        <v>17229.04684317527</v>
       </c>
       <c r="S14">
-        <v>0.3609915858494339</v>
+        <v>0.2462901211061437</v>
       </c>
       <c r="T14">
-        <v>0.3609915858494339</v>
+        <v>0.2462901211061437</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H15">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I15">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J15">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.313874</v>
       </c>
       <c r="O15">
-        <v>0.1050039584054939</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="P15">
-        <v>0.1050039584054938</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="Q15">
-        <v>924.1744238441281</v>
+        <v>1988.149225393002</v>
       </c>
       <c r="R15">
-        <v>8317.569814597153</v>
+        <v>17893.34302853702</v>
       </c>
       <c r="S15">
-        <v>0.09498919001331201</v>
+        <v>0.2557862696413659</v>
       </c>
       <c r="T15">
-        <v>0.09498919001331199</v>
+        <v>0.2557862696413659</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H16">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I16">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J16">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6293069999999999</v>
+        <v>0.4328273333333333</v>
       </c>
       <c r="N16">
-        <v>1.887921</v>
+        <v>1.298482</v>
       </c>
       <c r="O16">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="P16">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="Q16">
-        <v>1327.957096676112</v>
+        <v>1964.858108530008</v>
       </c>
       <c r="R16">
-        <v>11951.61387008501</v>
+        <v>17683.72297677007</v>
       </c>
       <c r="S16">
-        <v>0.136491084075887</v>
+        <v>0.2527897400941491</v>
       </c>
       <c r="T16">
-        <v>0.136491084075887</v>
+        <v>0.2527897400941491</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H17">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I17">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J17">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.439215333333333</v>
+        <v>0.38297</v>
       </c>
       <c r="N17">
-        <v>4.317646</v>
+        <v>1.14891</v>
       </c>
       <c r="O17">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="P17">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="Q17">
-        <v>3037.017251587979</v>
+        <v>1738.526317246763</v>
       </c>
       <c r="R17">
-        <v>27333.15526429181</v>
+        <v>15646.73685522087</v>
       </c>
       <c r="S17">
-        <v>0.3121529890265097</v>
+        <v>0.2236709174956363</v>
       </c>
       <c r="T17">
-        <v>0.3121529890265097</v>
+        <v>0.2236709174956363</v>
       </c>
     </row>
   </sheetData>
